--- a/pred_ohlcv/54_21/2020-01-16 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 STEEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>63501.97921734998</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>63501.97921734998</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>53351.92291734998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>53641.83791734998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>53873.90691734998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>51714.44871734998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -808,7 +808,7 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>51391.50821734998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>51521.50821734998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>64428.78036768999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>327094.8858671199</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>321447.0903671199</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>347905.4910671199</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>329813.0460671199</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>329657.0460671199</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>354281.6149552399</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>352979.7430552399</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>356809.7422552399</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>376863.7425292699</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>370863.7425292699</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>370863.7435292699</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>376993.2821292698</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>311469.9922894898</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>326376.5928894898</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>356744.9344894898</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>363148.4315894898</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>342661.4774894898</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>336736.2575894898</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>353742.1350894898</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>356962.0276894898</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>353069.7488894898</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>348350.3552894898</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>324990.2870894898</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 STEEM ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>53823.18571734998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>54077.88731734998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>51391.50821734998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>51521.50821734998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>327094.8858671199</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>321447.0903671199</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>347905.4910671199</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>325134.1793671199</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>329813.0460671199</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>329657.0460671199</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>330217.0450671199</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>354281.6149552399</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>351100.4920552399</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>352979.7430552399</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>351422.3140552399</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>356809.7422552399</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>367367.6000552399</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>379966.4855292699</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>376863.7425292699</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>370863.7425292699</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>370863.7435292699</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>383443.0715292699</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>376993.2821292698</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>366966.1799292698</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>369927.6134407798</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>379696.7844407798</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>379324.9028407797</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>379553.7201894898</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>386049.6903894898</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>326376.5928894898</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>356744.9344894898</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>363148.4315894898</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>342661.4774894898</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>336736.2575894898</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>353742.1350894898</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>353069.7488894898</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>348350.3552894898</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>324990.2870894898</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
